--- a/Code/Results/Cases/Case_3_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_103/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.92347993296987</v>
+        <v>22.79335135855249</v>
       </c>
       <c r="C2">
-        <v>22.06567539703954</v>
+        <v>15.43741065065874</v>
       </c>
       <c r="D2">
-        <v>4.180789350847682</v>
+        <v>7.302821254366672</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>45.73898252246619</v>
+        <v>47.89074097796659</v>
       </c>
       <c r="G2">
-        <v>2.063029604271303</v>
+        <v>3.707206416582363</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.309547155925607</v>
+        <v>11.5082108940864</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.75519349509726</v>
+        <v>19.39117377730971</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.81789332001691</v>
+        <v>22.26613143582738</v>
       </c>
       <c r="C3">
-        <v>20.44055983525</v>
+        <v>14.94054842355924</v>
       </c>
       <c r="D3">
-        <v>4.03702153457405</v>
+        <v>7.303085630920379</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.48687766957745</v>
+        <v>47.55594301086751</v>
       </c>
       <c r="G3">
-        <v>2.077777291245855</v>
+        <v>3.712104256277519</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.024527516404838</v>
+        <v>11.50000191463146</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.01740214217836</v>
+        <v>19.4586858559522</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.47935679943848</v>
+        <v>21.94384236518762</v>
       </c>
       <c r="C4">
-        <v>19.40023444448828</v>
+        <v>14.63245411624372</v>
       </c>
       <c r="D4">
-        <v>3.948187635551957</v>
+        <v>7.304327700218745</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.113299310482</v>
+        <v>47.36439486007571</v>
       </c>
       <c r="G4">
-        <v>2.086962131657994</v>
+        <v>3.715262060286009</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.853823194351472</v>
+        <v>11.49757132748295</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.18249992541574</v>
+        <v>19.50217105464794</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.96089793558498</v>
+        <v>21.81307377836738</v>
       </c>
       <c r="C5">
-        <v>18.96533097600141</v>
+        <v>14.50636413973217</v>
       </c>
       <c r="D5">
-        <v>3.911887816962857</v>
+        <v>7.305106359894628</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.55606612356037</v>
+        <v>47.28991401092873</v>
       </c>
       <c r="G5">
-        <v>2.090743400850887</v>
+        <v>3.716586908473576</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.785341067126023</v>
+        <v>11.49723641367262</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.25079852621456</v>
+        <v>19.52040294775552</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.87417010397379</v>
+        <v>21.79140015253231</v>
       </c>
       <c r="C6">
-        <v>18.89244635819665</v>
+        <v>14.48540114461753</v>
       </c>
       <c r="D6">
-        <v>3.905855590631071</v>
+        <v>7.305252142055642</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.46369797895942</v>
+        <v>47.27776389869508</v>
       </c>
       <c r="G6">
-        <v>2.091373752130151</v>
+        <v>3.716809199652118</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.774035178475271</v>
+        <v>11.49722036858013</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.26220086528503</v>
+        <v>19.52346122962357</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.47240750384902</v>
+        <v>21.94207620104571</v>
       </c>
       <c r="C7">
-        <v>19.39441389999761</v>
+        <v>14.63075550409249</v>
       </c>
       <c r="D7">
-        <v>3.947698426303204</v>
+        <v>7.304337096859642</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.1057737433603</v>
+        <v>47.36337584123745</v>
       </c>
       <c r="G7">
-        <v>2.087012964640594</v>
+        <v>3.715279773493867</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.852895234151022</v>
+        <v>11.49756415751487</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.1834169041426</v>
+        <v>19.50241486565969</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.20864229761663</v>
+        <v>22.61139344005727</v>
       </c>
       <c r="C8">
-        <v>21.51397405626992</v>
+        <v>15.26684669264481</v>
       </c>
       <c r="D8">
-        <v>4.131357374547163</v>
+        <v>7.302688930398167</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.960610004652</v>
+        <v>47.772425911616</v>
       </c>
       <c r="G8">
-        <v>2.068091356629632</v>
+        <v>3.708864056063663</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.210376415247273</v>
+        <v>11.50483849308243</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.84474275103162</v>
+        <v>19.41403023060413</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.17577969153616</v>
+        <v>23.92636260938787</v>
       </c>
       <c r="C9">
-        <v>25.34851529920284</v>
+        <v>16.48135500520887</v>
       </c>
       <c r="D9">
-        <v>4.48559859257769</v>
+        <v>7.307977985852292</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>50.63278802830485</v>
+        <v>48.68322354153671</v>
       </c>
       <c r="G9">
-        <v>2.031716945472916</v>
+        <v>3.697469306554482</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.946331306125224</v>
+        <v>11.5398251266268</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.21414507636096</v>
+        <v>19.25682382801576</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.60053086572854</v>
+        <v>24.8826015631336</v>
       </c>
       <c r="C10">
-        <v>27.99563350485818</v>
+        <v>17.34281298891355</v>
       </c>
       <c r="D10">
-        <v>4.740871841930475</v>
+        <v>7.316993132530205</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>54.86221180396832</v>
+        <v>49.41472953102308</v>
       </c>
       <c r="G10">
-        <v>2.004948603155852</v>
+        <v>3.689809964452722</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.51118962264963</v>
+        <v>11.57815932727834</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.77380372132292</v>
+        <v>19.15113164699919</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.11850537734022</v>
+        <v>25.31326028547427</v>
       </c>
       <c r="C11">
-        <v>29.17038992777944</v>
+        <v>17.72605855468193</v>
       </c>
       <c r="D11">
-        <v>4.85581645938655</v>
+        <v>7.322192597681701</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>56.80881044061405</v>
+        <v>49.76010097394045</v>
       </c>
       <c r="G11">
-        <v>1.992625397125598</v>
+        <v>3.686477871755806</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.774655361590041</v>
+        <v>11.59833162983435</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.57949405008575</v>
+        <v>19.10517625476613</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.68849528638203</v>
+        <v>25.47554575280967</v>
       </c>
       <c r="C12">
-        <v>29.61178565007348</v>
+        <v>17.86980052928824</v>
       </c>
       <c r="D12">
-        <v>4.899179147085024</v>
+        <v>7.324317985295744</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>57.55037530799161</v>
+        <v>49.89261000057061</v>
       </c>
       <c r="G12">
-        <v>1.987923807636824</v>
+        <v>3.685237795649531</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.875519517075132</v>
+        <v>11.60636190624724</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.50691335300061</v>
+        <v>19.0880796350273</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.56593616260982</v>
+        <v>25.44063266764669</v>
       </c>
       <c r="C13">
-        <v>29.51686299014411</v>
+        <v>17.83890682528696</v>
       </c>
       <c r="D13">
-        <v>4.889847301645013</v>
+        <v>7.323853310902488</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>57.3904458430154</v>
+        <v>49.86399656592683</v>
       </c>
       <c r="G13">
-        <v>1.98893819256805</v>
+        <v>3.685503905122695</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.85374475910133</v>
+        <v>11.60461506320982</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.52249768814057</v>
+        <v>19.09174809872253</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.16548976388679</v>
+        <v>25.32662849567729</v>
       </c>
       <c r="C14">
-        <v>29.20676814635627</v>
+        <v>17.73791281097881</v>
       </c>
       <c r="D14">
-        <v>4.859387150815226</v>
+        <v>7.322364327672679</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>56.86972243417033</v>
+        <v>49.77096853206643</v>
       </c>
       <c r="G14">
-        <v>1.992239387707867</v>
+        <v>3.6863754157107</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.782930451388424</v>
+        <v>11.5989844510707</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.57350178108723</v>
+        <v>19.10376357782786</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.91960555749955</v>
+        <v>25.25668913897703</v>
       </c>
       <c r="C15">
-        <v>29.01640127533715</v>
+        <v>17.67586673977877</v>
       </c>
       <c r="D15">
-        <v>4.840708404669809</v>
+        <v>7.321472612937913</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>56.55138315088474</v>
+        <v>49.71420805057149</v>
       </c>
       <c r="G15">
-        <v>1.994256434657361</v>
+        <v>3.686912064056285</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.739702969333376</v>
+        <v>11.59558646184138</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.60487843719011</v>
+        <v>19.11116322205934</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.50059733642883</v>
+        <v>24.85435474331362</v>
       </c>
       <c r="C16">
-        <v>27.91833079046685</v>
+        <v>17.31758063622737</v>
       </c>
       <c r="D16">
-        <v>4.733336364308122</v>
+        <v>7.316675312987707</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>54.73554379536733</v>
+        <v>49.39240489305637</v>
       </c>
       <c r="G16">
-        <v>2.005749874040228</v>
+        <v>3.690030772424894</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.494114904833568</v>
+        <v>11.57689590003444</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.78663371546283</v>
+        <v>19.15417770535318</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.62043927050988</v>
+        <v>24.60629838678854</v>
       </c>
       <c r="C17">
-        <v>27.23766529964863</v>
+        <v>17.09546515800086</v>
       </c>
       <c r="D17">
-        <v>4.667164714521313</v>
+        <v>7.31401262514343</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>53.6280936274407</v>
+        <v>49.19815612929432</v>
       </c>
       <c r="G17">
-        <v>2.012754133435062</v>
+        <v>3.691982856365015</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.345218681274597</v>
+        <v>11.56612901072105</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.89975493658176</v>
+        <v>19.18110995214037</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.11036979341488</v>
+        <v>24.46322404359763</v>
       </c>
       <c r="C18">
-        <v>26.84333995636879</v>
+        <v>16.96690488350215</v>
       </c>
       <c r="D18">
-        <v>4.628992384364857</v>
+        <v>7.312584601334329</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>52.99315376563752</v>
+        <v>49.08762144768733</v>
       </c>
       <c r="G18">
-        <v>2.016770024626528</v>
+        <v>3.693119977433473</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.260177752406221</v>
+        <v>11.56019363412917</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.96537371178258</v>
+        <v>19.19680062270313</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.93698707841358</v>
+        <v>24.41471844344965</v>
       </c>
       <c r="C19">
-        <v>26.70932193702362</v>
+        <v>16.92324287935597</v>
       </c>
       <c r="D19">
-        <v>4.616048664547783</v>
+        <v>7.312118914491658</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>52.77849417034074</v>
+        <v>49.05040366881776</v>
       </c>
       <c r="G19">
-        <v>2.018127927081262</v>
+        <v>3.693507454091785</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.231483443678892</v>
+        <v>11.5582282791209</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.9876829318854</v>
+        <v>19.20214755162638</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.71452353449996</v>
+        <v>24.63274697385637</v>
       </c>
       <c r="C20">
-        <v>27.31041052079832</v>
+        <v>17.11919416287108</v>
       </c>
       <c r="D20">
-        <v>4.674220407021235</v>
+        <v>7.314285373162456</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>53.74576556906391</v>
+        <v>49.21871149461483</v>
       </c>
       <c r="G20">
-        <v>2.012009933154905</v>
+        <v>3.691773571399584</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.361005831140297</v>
+        <v>11.56724852972466</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.88765477106707</v>
+        <v>19.17822227278223</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.28323355070769</v>
+        <v>25.36013718748072</v>
       </c>
       <c r="C21">
-        <v>29.29793744108537</v>
+        <v>17.76761584712994</v>
       </c>
       <c r="D21">
-        <v>4.868338388886897</v>
+        <v>7.322797444058359</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>57.0225398646751</v>
+        <v>49.79824704480342</v>
       </c>
       <c r="G21">
-        <v>1.991270824175198</v>
+        <v>3.686118843925656</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.803699054137416</v>
+        <v>11.6006276895529</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.5584921530159</v>
+        <v>19.10022604223893</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.93442816545772</v>
+        <v>25.83081990639779</v>
       </c>
       <c r="C22">
-        <v>30.57722139851507</v>
+        <v>18.18326961477323</v>
       </c>
       <c r="D22">
-        <v>4.994259914489438</v>
+        <v>7.329271812029324</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>59.19078183624132</v>
+        <v>50.18701440591551</v>
       </c>
       <c r="G22">
-        <v>1.977503552980022</v>
+        <v>3.682549646515053</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.09952626070274</v>
+        <v>11.62472357280799</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.34929889365318</v>
+        <v>19.05103291813736</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.05532660671004</v>
+        <v>25.58009218175035</v>
       </c>
       <c r="C23">
-        <v>29.8959449643074</v>
+        <v>17.96221430318107</v>
       </c>
       <c r="D23">
-        <v>4.927134532041435</v>
+        <v>7.325733454943779</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>58.03060872336616</v>
+        <v>49.97863639847314</v>
       </c>
       <c r="G23">
-        <v>1.984876318993391</v>
+        <v>3.684443075792201</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.940974935988409</v>
+        <v>11.6116551257427</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.46034691444675</v>
+        <v>19.0771250918479</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.67200073515629</v>
+        <v>24.62079099799778</v>
       </c>
       <c r="C24">
-        <v>27.27753181214812</v>
+        <v>17.1084689572042</v>
       </c>
       <c r="D24">
-        <v>4.671030931625738</v>
+        <v>7.314161743500255</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>53.69256072316967</v>
+        <v>49.2094148517189</v>
       </c>
       <c r="G24">
-        <v>2.012346419188902</v>
+        <v>3.691868142889991</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.353866723035358</v>
+        <v>11.56674160187903</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.89312344684788</v>
+        <v>19.17952714798969</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.87401302602271</v>
+        <v>23.57157433956777</v>
       </c>
       <c r="C25">
-        <v>24.34322304606208</v>
+        <v>16.15749578873322</v>
       </c>
       <c r="D25">
-        <v>4.390574654291702</v>
+        <v>7.305641338623026</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>49.08950713780892</v>
+        <v>48.42557523445979</v>
       </c>
       <c r="G25">
-        <v>2.041524822571287</v>
+        <v>3.700425998226585</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.743297438225643</v>
+        <v>11.52814051816345</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.38095852381086</v>
+        <v>19.29762898982517</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_103/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.79335135855249</v>
+        <v>28.92347993296984</v>
       </c>
       <c r="C2">
-        <v>15.43741065065874</v>
+        <v>22.06567539703963</v>
       </c>
       <c r="D2">
-        <v>7.302821254366672</v>
+        <v>4.180789350847737</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>47.89074097796659</v>
+        <v>45.73898252246617</v>
       </c>
       <c r="G2">
-        <v>3.707206416582363</v>
+        <v>2.063029604271431</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.5082108940864</v>
+        <v>8.309547155925616</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.39117377730971</v>
+        <v>12.75519349509725</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.26613143582738</v>
+        <v>26.81789332001686</v>
       </c>
       <c r="C3">
-        <v>14.94054842355924</v>
+        <v>20.44055983524994</v>
       </c>
       <c r="D3">
-        <v>7.303085630920379</v>
+        <v>4.037021534574063</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.55594301086751</v>
+        <v>43.4868776695774</v>
       </c>
       <c r="G3">
-        <v>3.712104256277519</v>
+        <v>2.077777291246254</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.50000191463146</v>
+        <v>8.024527516404806</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.4586858559522</v>
+        <v>13.01740214217847</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.94384236518762</v>
+        <v>25.47935679943851</v>
       </c>
       <c r="C4">
-        <v>14.63245411624372</v>
+        <v>19.40023444448839</v>
       </c>
       <c r="D4">
-        <v>7.304327700218745</v>
+        <v>3.948187635552088</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>47.36439486007571</v>
+        <v>42.11329931048204</v>
       </c>
       <c r="G4">
-        <v>3.715262060286009</v>
+        <v>2.086962131658385</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.49757132748295</v>
+        <v>7.853823194351436</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.50217105464794</v>
+        <v>13.18249992541575</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.81307377836738</v>
+        <v>24.96089793558498</v>
       </c>
       <c r="C5">
-        <v>14.50636413973217</v>
+        <v>18.96533097600145</v>
       </c>
       <c r="D5">
-        <v>7.305106359894628</v>
+        <v>3.911887816962863</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>47.28991401092873</v>
+        <v>41.55606612356028</v>
       </c>
       <c r="G5">
-        <v>3.716586908473576</v>
+        <v>2.090743400850755</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.49723641367262</v>
+        <v>7.78534106712597</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.52040294775552</v>
+        <v>13.25079852621447</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.79140015253231</v>
+        <v>24.87417010397378</v>
       </c>
       <c r="C6">
-        <v>14.48540114461753</v>
+        <v>18.89244635819661</v>
       </c>
       <c r="D6">
-        <v>7.305252142055642</v>
+        <v>3.905855590630971</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>47.27776389869508</v>
+        <v>41.46369797895955</v>
       </c>
       <c r="G6">
-        <v>3.716809199652118</v>
+        <v>2.091373752130287</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.49722036858013</v>
+        <v>7.774035178475263</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.52346122962357</v>
+        <v>13.26220086528509</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.94207620104571</v>
+        <v>25.47240750384904</v>
       </c>
       <c r="C7">
-        <v>14.63075550409249</v>
+        <v>19.39441389999769</v>
       </c>
       <c r="D7">
-        <v>7.304337096859642</v>
+        <v>3.947698426303212</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>47.36337584123745</v>
+        <v>42.10577374336027</v>
       </c>
       <c r="G7">
-        <v>3.715279773493867</v>
+        <v>2.087012964640731</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.49756415751487</v>
+        <v>7.852895234150924</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.50241486565969</v>
+        <v>13.18341690414261</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.61139344005727</v>
+        <v>28.20864229761662</v>
       </c>
       <c r="C8">
-        <v>15.26684669264481</v>
+        <v>21.51397405626987</v>
       </c>
       <c r="D8">
-        <v>7.302688930398167</v>
+        <v>4.131357374547239</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>47.772425911616</v>
+        <v>44.96061000465205</v>
       </c>
       <c r="G8">
-        <v>3.708864056063663</v>
+        <v>2.0680913566299</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.50483849308243</v>
+        <v>8.210376415247298</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.41403023060413</v>
+        <v>12.84474275103164</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.92636260938787</v>
+        <v>33.17577969153625</v>
       </c>
       <c r="C9">
-        <v>16.48135500520887</v>
+        <v>25.34851529920303</v>
       </c>
       <c r="D9">
-        <v>7.307977985852292</v>
+        <v>4.48559859257769</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>48.68322354153671</v>
+        <v>50.63278802830491</v>
       </c>
       <c r="G9">
-        <v>3.697469306554482</v>
+        <v>2.031716945473046</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.5398251266268</v>
+        <v>8.946331306125199</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.25682382801576</v>
+        <v>12.21414507636089</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.8826015631336</v>
+        <v>36.60053086572847</v>
       </c>
       <c r="C10">
-        <v>17.34281298891355</v>
+        <v>27.99563350485809</v>
       </c>
       <c r="D10">
-        <v>7.316993132530205</v>
+        <v>4.740871841930466</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.41472953102308</v>
+        <v>54.86221180396823</v>
       </c>
       <c r="G10">
-        <v>3.689809964452722</v>
+        <v>2.004948603155722</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.57815932727834</v>
+        <v>9.511189622649587</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.15113164699919</v>
+        <v>11.77380372132297</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.31326028547427</v>
+        <v>38.11850537734021</v>
       </c>
       <c r="C11">
-        <v>17.72605855468193</v>
+        <v>29.17038992777954</v>
       </c>
       <c r="D11">
-        <v>7.322192597681701</v>
+        <v>4.85581645938655</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.76010097394045</v>
+        <v>56.80881044061405</v>
       </c>
       <c r="G11">
-        <v>3.686477871755806</v>
+        <v>1.992625397125459</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.59833162983435</v>
+        <v>9.774655361590021</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.10517625476613</v>
+        <v>11.57949405008575</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.47554575280967</v>
+        <v>38.68849528638207</v>
       </c>
       <c r="C12">
-        <v>17.86980052928824</v>
+        <v>29.61178565007372</v>
       </c>
       <c r="D12">
-        <v>7.324317985295744</v>
+        <v>4.899179147085024</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.89261000057061</v>
+        <v>57.55037530799177</v>
       </c>
       <c r="G12">
-        <v>3.685237795649531</v>
+        <v>1.98792380763668</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.60636190624724</v>
+        <v>9.875519517075123</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.0880796350273</v>
+        <v>11.50691335300058</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.44063266764669</v>
+        <v>38.56593616261029</v>
       </c>
       <c r="C13">
-        <v>17.83890682528696</v>
+        <v>29.51686299014438</v>
       </c>
       <c r="D13">
-        <v>7.323853310902488</v>
+        <v>4.889847301645008</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.86399656592683</v>
+        <v>57.39044584301575</v>
       </c>
       <c r="G13">
-        <v>3.685503905122695</v>
+        <v>1.988938192568041</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.60461506320982</v>
+        <v>9.853744759101366</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.09174809872253</v>
+        <v>11.5224976881403</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.32662849567729</v>
+        <v>38.16548976388685</v>
       </c>
       <c r="C14">
-        <v>17.73791281097881</v>
+        <v>29.2067681463562</v>
       </c>
       <c r="D14">
-        <v>7.322364327672679</v>
+        <v>4.859387150815187</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.77096853206643</v>
+        <v>56.86972243417034</v>
       </c>
       <c r="G14">
-        <v>3.6863754157107</v>
+        <v>1.992239387707873</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.5989844510707</v>
+        <v>9.782930451388433</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.10376357782786</v>
+        <v>11.57350178108721</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.25668913897703</v>
+        <v>37.91960555749967</v>
       </c>
       <c r="C15">
-        <v>17.67586673977877</v>
+        <v>29.01640127533727</v>
       </c>
       <c r="D15">
-        <v>7.321472612937913</v>
+        <v>4.840708404669832</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.71420805057149</v>
+        <v>56.55138315088492</v>
       </c>
       <c r="G15">
-        <v>3.686912064056285</v>
+        <v>1.994256434657223</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.59558646184138</v>
+        <v>9.739702969333393</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.11116322205934</v>
+        <v>11.60487843719006</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.85435474331362</v>
+        <v>36.5005973364289</v>
       </c>
       <c r="C16">
-        <v>17.31758063622737</v>
+        <v>27.91833079046684</v>
       </c>
       <c r="D16">
-        <v>7.316675312987707</v>
+        <v>4.733336364308145</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.39240489305637</v>
+        <v>54.73554379536738</v>
       </c>
       <c r="G16">
-        <v>3.690030772424894</v>
+        <v>2.005749874040225</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.57689590003444</v>
+        <v>9.494114904833593</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.15417770535318</v>
+        <v>11.78663371546279</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.60629838678854</v>
+        <v>35.62043927050977</v>
       </c>
       <c r="C17">
-        <v>17.09546515800086</v>
+        <v>27.23766529964866</v>
       </c>
       <c r="D17">
-        <v>7.31401262514343</v>
+        <v>4.667164714521226</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.19815612929432</v>
+        <v>53.62809362744066</v>
       </c>
       <c r="G17">
-        <v>3.691982856365015</v>
+        <v>2.012754133435054</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.56612901072105</v>
+        <v>9.345218681274577</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.18110995214037</v>
+        <v>11.89975493658182</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.46322404359763</v>
+        <v>35.11036979341492</v>
       </c>
       <c r="C18">
-        <v>16.96690488350215</v>
+        <v>26.84333995636884</v>
       </c>
       <c r="D18">
-        <v>7.312584601334329</v>
+        <v>4.628992384364836</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49.08762144768733</v>
+        <v>52.99315376563752</v>
       </c>
       <c r="G18">
-        <v>3.693119977433473</v>
+        <v>2.016770024626528</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.56019363412917</v>
+        <v>9.260177752406202</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.19680062270313</v>
+        <v>11.96537371178255</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.41471844344965</v>
+        <v>34.93698707841349</v>
       </c>
       <c r="C19">
-        <v>16.92324287935597</v>
+        <v>26.70932193702365</v>
       </c>
       <c r="D19">
-        <v>7.312118914491658</v>
+        <v>4.616048664547851</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>49.05040366881776</v>
+        <v>52.77849417034075</v>
       </c>
       <c r="G19">
-        <v>3.693507454091785</v>
+        <v>2.018127927081525</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.5582282791209</v>
+        <v>9.231483443678892</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.20214755162638</v>
+        <v>11.98768293188542</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.63274697385637</v>
+        <v>35.71452353449997</v>
       </c>
       <c r="C20">
-        <v>17.11919416287108</v>
+        <v>27.31041052079821</v>
       </c>
       <c r="D20">
-        <v>7.314285373162456</v>
+        <v>4.6742204070212</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.21871149461483</v>
+        <v>53.74576556906386</v>
       </c>
       <c r="G20">
-        <v>3.691773571399584</v>
+        <v>2.012009933154897</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.56724852972466</v>
+        <v>9.36100583114029</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.17822227278223</v>
+        <v>11.88765477106707</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.36013718748072</v>
+        <v>38.28323355070783</v>
       </c>
       <c r="C21">
-        <v>17.76761584712994</v>
+        <v>29.29793744108545</v>
       </c>
       <c r="D21">
-        <v>7.322797444058359</v>
+        <v>4.868338388886936</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.79824704480342</v>
+        <v>57.02253986467526</v>
       </c>
       <c r="G21">
-        <v>3.686118843925656</v>
+        <v>1.991270824175333</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.6006276895529</v>
+        <v>9.803699054137416</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.10022604223893</v>
+        <v>11.55849215301584</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.83081990639779</v>
+        <v>39.93442816545762</v>
       </c>
       <c r="C22">
-        <v>18.18326961477323</v>
+        <v>30.57722139851505</v>
       </c>
       <c r="D22">
-        <v>7.329271812029324</v>
+        <v>4.994259914489382</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.18701440591551</v>
+        <v>59.19078183624124</v>
       </c>
       <c r="G22">
-        <v>3.682549646515053</v>
+        <v>1.97750355297989</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.62472357280799</v>
+        <v>10.09952626070275</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.05103291813736</v>
+        <v>11.34929889365319</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.58009218175035</v>
+        <v>39.05532660671018</v>
       </c>
       <c r="C23">
-        <v>17.96221430318107</v>
+        <v>29.89594496430763</v>
       </c>
       <c r="D23">
-        <v>7.325733454943779</v>
+        <v>4.927134532041393</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.97863639847314</v>
+        <v>58.03060872336641</v>
       </c>
       <c r="G23">
-        <v>3.684443075792201</v>
+        <v>1.984876318993392</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.6116551257427</v>
+        <v>9.940974935988397</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.0771250918479</v>
+        <v>11.46034691444668</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.62079099799778</v>
+        <v>35.67200073515627</v>
       </c>
       <c r="C24">
-        <v>17.1084689572042</v>
+        <v>27.27753181214819</v>
       </c>
       <c r="D24">
-        <v>7.314161743500255</v>
+        <v>4.67103093162563</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.2094148517189</v>
+        <v>53.69256072316966</v>
       </c>
       <c r="G24">
-        <v>3.691868142889991</v>
+        <v>2.012346419188634</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.56674160187903</v>
+        <v>9.353866723035356</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.17952714798969</v>
+        <v>11.89312344684788</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.57157433956777</v>
+        <v>31.87401302602267</v>
       </c>
       <c r="C25">
-        <v>16.15749578873322</v>
+        <v>24.34322304606204</v>
       </c>
       <c r="D25">
-        <v>7.305641338623026</v>
+        <v>4.390574654291688</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>48.42557523445979</v>
+        <v>49.08950713780892</v>
       </c>
       <c r="G25">
-        <v>3.700425998226585</v>
+        <v>2.04152482257129</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.52814051816345</v>
+        <v>8.743297438225639</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.29762898982517</v>
+        <v>12.38095852381087</v>
       </c>
       <c r="O25">
         <v>0</v>
